--- a/database/industries/lastic/pekavir/product/yearly.xlsx
+++ b/database/industries/lastic/pekavir/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA34C5D5-4DEC-4E45-BF03-BC0416BC7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +297,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -308,7 +309,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -355,6 +356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,17 +576,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,7 +601,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +618,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -600,7 +635,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -615,7 +650,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -632,7 +667,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -649,7 +684,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -664,7 +699,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -701,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -716,7 +751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -755,7 +790,7 @@
         <v>29606</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -794,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -833,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -872,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -911,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
@@ -948,7 +983,7 @@
         <v>29616</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -963,7 +998,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -978,7 +1013,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -993,7 +1028,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1045,7 +1080,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>29716</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1162,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>29733</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1368,7 +1403,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1383,7 +1418,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1398,7 +1433,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1450,7 +1485,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>19891768</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>7972</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>19899740</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1775,7 +1810,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1790,7 +1825,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1805,7 +1840,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1857,7 +1892,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>669395881</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -1935,7 +1970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +2009,7 @@
         <v>468941176</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>19</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
@@ -2052,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>20</v>
       </c>
@@ -2091,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2145,7 +2180,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2160,7 +2195,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2175,7 +2210,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>32</v>
       </c>
@@ -2212,7 +2247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2227,7 +2262,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>-14621235</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +2379,7 @@
         <v>-4496</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>22</v>
       </c>
@@ -2420,7 +2455,7 @@
         <v>-14625731</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2435,7 +2470,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2450,7 +2485,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2465,7 +2500,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>33</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2517,7 +2552,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2591,7 @@
         <v>5270533</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2669,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>26</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>22</v>
       </c>
